--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE2E415-A622-43F5-B5E5-C69953FE7F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6EC53A-8A9F-4E63-8AA3-88EA0EB2D88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{BAB2ED71-DBF5-43FC-8F08-B0C0247D712C}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{E0659180-A444-4EFF-97EA-00F6FC8DE949}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD682A16-3356-4893-9238-F1816AA21E5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F1D0F2-863F-446D-B738-19B0CDD7EDE9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.418775716125299</v>
+        <v>1.4430026139920349</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6EC53A-8A9F-4E63-8AA3-88EA0EB2D88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544ECDAB-0B31-4CF3-A801-278261C02863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{E0659180-A444-4EFF-97EA-00F6FC8DE949}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{26881DEE-EB1C-45D5-BC6C-D526FF8F97C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F1D0F2-863F-446D-B738-19B0CDD7EDE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F0D22C-9923-4122-9144-C023912AC62D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1.4430026139920349</v>
+        <v>3.1518686409199139</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544ECDAB-0B31-4CF3-A801-278261C02863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA59608C-F260-453E-B95E-B736CFE9265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{26881DEE-EB1C-45D5-BC6C-D526FF8F97C1}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{44182EEE-8B9A-4CA0-AE3B-464F19EA2C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F0D22C-9923-4122-9144-C023912AC62D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCBC589-6D22-4564-9604-AD14AC8887E4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>3.1518686409199139</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA59608C-F260-453E-B95E-B736CFE9265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A7724-29B1-45D2-B42F-F359233EDEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{44182EEE-8B9A-4CA0-AE3B-464F19EA2C35}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{34CD8BFC-A342-463B-A3AE-873C27E27AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCBC589-6D22-4564-9604-AD14AC8887E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5F0A24-DCD0-4718-A630-0FE2E16ED71C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
